--- a/pred_ohlcv/54_21/2019-11-01 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LOOM ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>181750.7024748147</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>181650.7024748147</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>181660.7024748147</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>147914.4619748147</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-104792.1811251853</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-186860.2884251853</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-92012.48732518531</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-127921.1593251853</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-127911.1593251853</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-127911.1593251853</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-118484.0690251853</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-118519.8258251853</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-108931.8258251853</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-64096.37412518531</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-63726.55272518531</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-67526.70262518531</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-67516.70262518531</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-198767.5370251853</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-198767.5370251853</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-225892.2745251853</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-268825.3867251853</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-266382.7680251853</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-246885.7680251853</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-246875.7680251853</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-273435.7529251853</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-279633.1856251853</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-306827.2315251853</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-311210.8353251853</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-307663.3172251853</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-307673.3172251853</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-01 LOOM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 LOOM ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>181750.7024748147</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>181650.7024748147</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>181660.7024748147</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>147914.4619748147</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-64096.37412518531</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-62686.55272518531</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-63726.55272518531</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-67526.70262518531</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-67516.70262518531</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-269709.3829251853</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-273435.7529251853</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-265033.1856251853</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-279633.1856251853</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-306837.2315251853</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-306827.2315251853</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-311730.8353251853</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-311660.8353251853</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-311260.8353251853</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-311270.8353251853</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-311210.8353251853</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-311250.8353251853</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-307663.3172251853</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-307683.3172251853</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-307673.3172251853</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-292373.3172251853</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-292383.3172251853</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-292293.3172251853</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-240288.5939251853</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-240388.5939251853</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-240388.5939251853</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
